--- a/images/type_chart.xlsx
+++ b/images/type_chart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svenk\bachelor_thesis\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140000_{B7689268-9214-41E1-91BF-F96FDFE4AD4A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875233E-23E3-435D-A1D7-2AF0920D293F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="eol_13_unreverse_input" localSheetId="0">Tabelle1!$B$2:$C$301</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="eol_13_unreverse_input" type="6" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="eol_13_unreverse_input" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\svenk\Documents\cluster_files\eol_13_unreverse_input.csv" decimal="," thousands=" " semicolon="1">
       <textFields count="2">
         <textField/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +333,7 @@
                   <c:v>5.7859999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>66.52300000000001</c:v>
+                  <c:v>7.9910000000000014</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5.3209999999999997</c:v>
@@ -342,13 +342,13 @@
                   <c:v>4.2430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.154000000000003</c:v>
+                  <c:v>6.8389999999999986</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5.657</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.190999999999999</c:v>
+                  <c:v>6.8489999999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.85</c:v>
@@ -1745,7 +1745,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="eol_13_unreverse_input" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="eol_13_unreverse_input" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2044,25 +2044,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>vanilla RNN</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>667.1</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>605.94000000000005</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>585.24</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>480.43999999999994</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>494.51</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>445.19799999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>457.31</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>365.33500000000004</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>513.96</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>378.87800000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>456.86</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>332.85599999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>470.24</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>344.81900000000007</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>439.31</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>316.81100000000004</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>436.36</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>325.197</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>471.13</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>320.71900000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>460.33</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>292.40800000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>433.06</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>306.78700000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>368.59</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>290.851</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>412.68</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>322.16600000000005</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>419.11</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>291.78699999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>425.74</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>296.24300000000005</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>382.77</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>282.88299999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>384.77</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>290.02000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>378.54</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>296.16800000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>382.53</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>285.892</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>388</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>281.14700000000005</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>345.67</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>299.37700000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>323.07</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>286.66199999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>322.41000000000003</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="H25">
         <f>SUM(B222:B231)/10</f>
-        <v>66.52300000000001</v>
+        <v>7.9910000000000014</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:J25" si="23">SUM(C222:C231)/10</f>
@@ -2709,7 +2709,7 @@
         <v>273.44300000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>354.34</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>275.14999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>352.99</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>294.36399999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>310.95</v>
       </c>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="H28">
         <f>SUM(B252:B261)/10</f>
-        <v>26.154000000000003</v>
+        <v>6.8389999999999986</v>
       </c>
       <c r="I28">
         <f t="shared" ref="I28:J28" si="26">SUM(C252:C261)/10</f>
@@ -2787,7 +2787,7 @@
         <v>297.12700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>305.23</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>276.20999999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>316.76</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="H30">
         <f>SUM(B272:B281)/10</f>
-        <v>25.190999999999999</v>
+        <v>6.8489999999999993</v>
       </c>
       <c r="I30">
         <f t="shared" ref="I30:J30" si="28">SUM(C272:C281)/10</f>
@@ -2839,7 +2839,7 @@
         <v>302.13900000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>299.51</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>288.505</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>286.57</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>294.68600000000004</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>293.97000000000003</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>368.41</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>268.69</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>386.1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>139.83000000000001</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>389.63</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>150.16</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>427.26</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>124.79</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>314.79000000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>115.48</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>392.51</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>92.39</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>379.22</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>92.42</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>353.81</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>63.2</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>355.18</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>63.33</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>352.99</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>54.92</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>256.45</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>59.2</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>304.83</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>48.34</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>359.79</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>69.02</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>384.79</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47">
         <v>52.07</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>369.2</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>49.36</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>327.58999999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>61.93</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>338.96</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>58.19</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>358.03</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>62.23</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>275.93</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52">
         <v>44.68</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>348.53</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53">
         <v>45.72</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>318.62</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54">
         <v>34.51</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>351.13</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55">
         <v>36.06</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>393.93</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>34.840000000000003</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>343.14</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>33.19</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>331.13</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>27.68</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>318.67</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59">
         <v>35.44</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60">
         <v>27.06</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>318.97000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61">
         <v>32.020000000000003</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>327.24</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62">
         <v>35.89</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>295.62</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>26.09</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>332.16</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64">
         <v>64.02</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>345.24</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65">
         <v>27.25</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>334.71</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66">
         <v>30.46</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>358.83</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67">
         <v>61.77</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>336.52</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>29.69</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>277.51</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69">
         <v>62.17</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>314.45</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70">
         <v>37.64</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>286.05</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>32.83</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>287.02</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>22.13</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>334.5</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>24.42</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>308.95999999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>25.32</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>302.39</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>31.14</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>361.89</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>23.11</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>355.41</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>63.4</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>262.19</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>24.83</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>338.1</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>20.02</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>359.78</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>23.38</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>331.03</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81">
         <v>26.52</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>297.72000000000003</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82">
         <v>17.649999999999999</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>344.7</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83">
         <v>19.84</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>314.89</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84">
         <v>18.579999999999998</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>283.93</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85">
         <v>25.23</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>336.02</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>25.2</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>344.07</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B87">
         <v>20.39</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>352.81</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88">
         <v>44.37</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>364.04</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89">
         <v>31.97</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>298.25</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B90">
         <v>20.99</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>298.01</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B91">
         <v>25.33</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>270.47000000000003</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>8.0399999999999991</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>272.3</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B93">
         <v>11.1</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>269.69</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B94">
         <v>21.58</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>338.37</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B95">
         <v>11.44</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>344.73</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B96">
         <v>33.950000000000003</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>326.04000000000002</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B97">
         <v>29.4</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>121.31</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B98">
         <v>14.06</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>328.53</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B99">
         <v>30.97</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>329.56</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B100">
         <v>11.16</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>296.38</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B101">
         <v>29.52</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>297.17</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B102">
         <v>18.27</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>308.25</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>24.38</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>314.29000000000002</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B104">
         <v>12.04</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>307.54000000000002</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B105">
         <v>16.11</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>289.36</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B106">
         <v>10.07</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>300.63</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>8.4600000000000009</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>338.61</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B108">
         <v>12.18</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>268.68</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B109">
         <v>9.5399999999999991</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>285.79000000000002</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B110">
         <v>19.850000000000001</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>337.65</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B111">
         <v>19.29</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>317.07</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B112">
         <v>16.48</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>316.94</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B113">
         <v>12.99</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>141.31</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>11.17</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>310.95</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B115">
         <v>29.81</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>281.85000000000002</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B116">
         <v>17.100000000000001</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>305.01</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>34.22</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>322.79000000000002</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B118">
         <v>11.69</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>301.95999999999998</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B119">
         <v>8.66</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>302.94</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>16.95</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>318.27</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B121">
         <v>11.01</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>306.49</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B122">
         <v>11.05</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>335.97</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>6.92</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>348.47</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B124">
         <v>12.24</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>337.72</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B125">
         <v>68.87</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>347.94</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>6.57</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>289.39</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>18.25</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>269.05</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>8.64</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>276.17</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>6.83</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>351.01</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>9.32</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>287.31</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>12.47</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>378.63</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>33.840000000000003</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>330.22</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>6.17</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>289.64999999999998</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>8.51</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>287.95999999999998</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>27.68</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>293.89</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>29.19</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>239.87</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>7.76</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>314.33</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>5.85</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>330.67</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>6.72</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>293.60000000000002</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>6.1</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>292.22000000000003</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>5.89</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>245.46</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>8.69</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>279.41000000000003</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>12.43</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>338.86</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>15.52</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>285.95999999999998</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>12.08</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>302.52999999999997</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>10.029999999999999</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>328.39</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>20.29</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>294.33999999999997</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>16.59</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>282.02</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>7.14</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>309.04000000000002</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>7.01</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>308.98</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>6.25</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>232.9</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>5.57</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>298.92</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>6.27</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>278.60000000000002</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>4.47</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>284.38</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>8.34</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>319.54000000000002</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>14.23</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>263.14999999999998</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>8.0399999999999991</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>276.62</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>4.1399999999999997</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>243.47</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>6.41</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>296.26</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>8.11</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>267.36</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>3.91</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>300.52999999999997</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>9.02</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>271.89</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>3.96</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>329.92</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>6.18</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>360.94</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B165">
         <v>6.04</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>265.95999999999998</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B166">
         <v>5.05</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>290.16000000000003</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>13.11</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>266.89</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>10.6</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>10.23</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>263.13</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>8.36</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>277.91000000000003</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>6</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>284.89999999999998</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>114.7</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>277.97000000000003</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>4.66</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>308.88</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>5.72</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>6.09</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>335.88</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>11.29</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>297.39999999999998</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>5.52</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>299.47000000000003</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>5.61</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>268.83</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>8.41</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>270.99</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>15.33</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>308.24</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>3.65</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>295.02</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>4.91</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>297.61</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>7.81</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>246.47</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>5.0599999999999996</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>249.66</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>4.51</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>263.56</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>8.69</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>308.35000000000002</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>14.88</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>320.48</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>5.52</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>277.48</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>4.07</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>296.16000000000003</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>19.940000000000001</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>320.89</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>5.62</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>278.26</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>3.81</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>302.39</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>6.15</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>261.95999999999998</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B194">
         <v>5.54</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>321.60000000000002</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B195">
         <v>5.34</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>320.56</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>4.46</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>278.2</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>1.75</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>4.0999999999999996</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>206.96</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>4.66</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>276.16000000000003</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>4.59</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>299.92</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>2.69</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>302.22000000000003</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>4.3499999999999996</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>304.79000000000002</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>3.1</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>306.52999999999997</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>5.69</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>300.39</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>4.71</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>306.02</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>2.37</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>275.77</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>17.670000000000002</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>304.92</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>2.17</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>293.14999999999998</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>7.87</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>307.89</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>5.2</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>262.13</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B211">
         <v>7.39</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>332.18</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B212">
         <v>5.25</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>316.58999999999997</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B213">
         <v>7.6</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B214">
         <v>6.12</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>279.29000000000002</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B215">
         <v>3.61</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>146.86000000000001</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B216">
         <v>4.53</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>297.33</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B217">
         <v>2.52</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>303.77</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B218">
         <v>13.84</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>348.64</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B219">
         <v>7.62</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>262.56</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B220">
         <v>3.99</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>280.17</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B221">
         <v>2.78</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>359.41</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B222">
         <v>6.41</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>201.96</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B223">
         <v>10.71</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>265.33999999999997</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B224">
         <v>3.76</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>310.97000000000003</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225">
         <v>3.55</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>318.94</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226">
         <v>4.13</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>272.75</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227">
         <v>3.9</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>262.89999999999998</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228">
         <v>5.29</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>273.67</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229">
         <v>7.71</v>
       </c>
@@ -5058,9 +5058,9 @@
         <v>287.70999999999998</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B230">
-        <v>615.32000000000005</v>
+        <v>30</v>
       </c>
       <c r="C230">
         <v>140.94</v>
@@ -5069,7 +5069,7 @@
         <v>285.55</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B231">
         <v>4.45</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>254.64</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232">
         <v>3.15</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>295.63</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B233">
         <v>7.04</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>262.18</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B234">
         <v>7.83</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>272.95</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B235">
         <v>3.35</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>259.41000000000003</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B236">
         <v>3.42</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>261.85000000000002</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B237">
         <v>9.2200000000000006</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B238">
         <v>4.75</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>169.63</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B239">
         <v>5.26</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>315.56</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240">
         <v>3.27</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>290.33999999999997</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B241">
         <v>5.92</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>295.95</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B242">
         <v>2.16</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>265.08999999999997</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B243">
         <v>5.9</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>324.89</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B244">
         <v>5.93</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>298.58</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B245">
         <v>3.23</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>292.85000000000002</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B246">
         <v>3.99</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>266.23</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B247">
         <v>3.75</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>299.55</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B248">
         <v>4.4000000000000004</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>248.66</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B249">
         <v>4.33</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>306.45</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B250">
         <v>3.78</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B251">
         <v>4.96</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>321.33999999999997</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B252">
         <v>13.85</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>308.52999999999997</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253">
         <v>4.6500000000000004</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>316.72000000000003</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B254">
         <v>3.76</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>290.25</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B255">
         <v>7.56</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>328.34</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B256">
         <v>3.05</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>297.05</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B257">
         <v>3.83</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>261.94</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B258">
         <v>3.48</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>264.55</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B259">
         <v>2.56</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>317.10000000000002</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B260">
         <v>5.65</v>
       </c>
@@ -5399,9 +5399,9 @@
         <v>297.81</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B261">
-        <v>213.15</v>
+        <v>20</v>
       </c>
       <c r="C261">
         <v>140.97999999999999</v>
@@ -5410,7 +5410,7 @@
         <v>288.98</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B262">
         <v>10.050000000000001</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>306.12</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B263">
         <v>5.61</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>247.65</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B264">
         <v>6.16</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>185.31</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B265">
         <v>7.87</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>285.44</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B266">
         <v>4.96</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>256.87</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B267">
         <v>5.08</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>334.79</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B268">
         <v>6.41</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>284.95</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B269">
         <v>4.72</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>312.83</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B270">
         <v>3.26</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>261.77</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B271">
         <v>2.4500000000000002</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>286.37</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B272">
         <v>6.54</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>288.41000000000003</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B273">
         <v>3.36</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>322.12</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B274">
         <v>8.5399999999999991</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>284.05</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B275">
         <v>2.85</v>
       </c>
@@ -5564,9 +5564,9 @@
         <v>259.17</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B276">
-        <v>203.42</v>
+        <v>20</v>
       </c>
       <c r="C276">
         <v>171.13</v>
@@ -5575,7 +5575,7 @@
         <v>432.88</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B277">
         <v>4.46</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>255.43</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B278">
         <v>5.59</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>290.32</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B279">
         <v>6.91</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>305.83999999999997</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B280">
         <v>7.22</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>265.67</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B281">
         <v>3.02</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>317.5</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B282">
         <v>9.2200000000000006</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>296.47000000000003</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B283">
         <v>2.31</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>264.86</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B284">
         <v>2.73</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>244.49</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B285">
         <v>4.29</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>261.29000000000002</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B286">
         <v>3.27</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>302.81</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B287">
         <v>3.28</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B288">
         <v>3.91</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>307.97000000000003</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B289">
         <v>2.4700000000000002</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>279.95</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B290">
         <v>2.21</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>304.58999999999997</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B291">
         <v>4.8099999999999996</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>333.12</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B292">
         <v>3.58</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>261.22000000000003</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B293">
         <v>2.65</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>299.14</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B294">
         <v>7.78</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>290.56</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B295">
         <v>3.37</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>293.72000000000003</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B296">
         <v>3.13</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>274.10000000000002</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B297">
         <v>3.22</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>244.78</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B298">
         <v>6.11</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>317.43</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B299">
         <v>3.69</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>354.4</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B300">
         <v>4.04</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>329.28</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B301">
         <v>5.09</v>
       </c>
